--- a/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_6/Expr_2.xlsx
+++ b/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_6/Expr_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1的副本/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2615CDE1-1D99-7B44-99F8-CC5C501A2D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393F455F-4C61-2F48-999A-9094F205B525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50280" yWindow="720" windowWidth="39060" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50280" yWindow="720" windowWidth="39060" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2,900,900,900,,1</t>
+    <t>2,900,900,900,1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -595,8 +595,8 @@
   </sheetPr>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -806,8 +806,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
